--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_SANTANA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_SANTANA.xlsx
@@ -597,64 +597,64 @@
         <v>2065</v>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="J2" t="n">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="T2" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>1356</v>
+        <v>1281</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1318</v>
+        <v>1352</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
